--- a/natmiOut/OldD2/LR-pairs_lrc2p/Icam2-Itgal.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Icam2-Itgal.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.6073597953393</v>
+        <v>50.6391945</v>
       </c>
       <c r="H2">
-        <v>50.6073597953393</v>
+        <v>101.278389</v>
       </c>
       <c r="I2">
-        <v>0.5421618622715959</v>
+        <v>0.5364920657213447</v>
       </c>
       <c r="J2">
-        <v>0.5421618622715959</v>
+        <v>0.4366943366889108</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.183886783266226</v>
+        <v>0.201234</v>
       </c>
       <c r="N2">
-        <v>0.183886783266226</v>
+        <v>0.402468</v>
       </c>
       <c r="O2">
-        <v>0.00500922091510655</v>
+        <v>0.004466895590915998</v>
       </c>
       <c r="P2">
-        <v>0.00500922091510655</v>
+        <v>0.002986564688658119</v>
       </c>
       <c r="Q2">
-        <v>9.306024602361477</v>
+        <v>10.190327666013</v>
       </c>
       <c r="R2">
-        <v>9.306024602361477</v>
+        <v>40.761310664052</v>
       </c>
       <c r="S2">
-        <v>0.002715808539863995</v>
+        <v>0.00239645404293209</v>
       </c>
       <c r="T2">
-        <v>0.002715808539863995</v>
+        <v>0.001304215885692081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.6073597953393</v>
+        <v>50.6391945</v>
       </c>
       <c r="H3">
-        <v>50.6073597953393</v>
+        <v>101.278389</v>
       </c>
       <c r="I3">
-        <v>0.5421618622715959</v>
+        <v>0.5364920657213447</v>
       </c>
       <c r="J3">
-        <v>0.5421618622715959</v>
+        <v>0.4366943366889108</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>11.1245070730189</v>
+        <v>0.048421</v>
       </c>
       <c r="N3">
-        <v>11.1245070730189</v>
+        <v>0.145263</v>
       </c>
       <c r="O3">
-        <v>0.303040340967517</v>
+        <v>0.00107482608012435</v>
       </c>
       <c r="P3">
-        <v>0.303040340967517</v>
+        <v>0.001077942460937377</v>
       </c>
       <c r="Q3">
-        <v>562.9819319900644</v>
+        <v>2.4520004368845</v>
       </c>
       <c r="R3">
-        <v>562.9819319900644</v>
+        <v>14.712002621307</v>
       </c>
       <c r="S3">
-        <v>0.1642969156023684</v>
+        <v>0.0005766356640170882</v>
       </c>
       <c r="T3">
-        <v>0.1642969156023684</v>
+        <v>0.0004707313679678601</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.6073597953393</v>
+        <v>50.6391945</v>
       </c>
       <c r="H4">
-        <v>50.6073597953393</v>
+        <v>101.278389</v>
       </c>
       <c r="I4">
-        <v>0.5421618622715959</v>
+        <v>0.5364920657213447</v>
       </c>
       <c r="J4">
-        <v>0.5421618622715959</v>
+        <v>0.4366943366889108</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.2176634538606</v>
+        <v>19.00592</v>
       </c>
       <c r="N4">
-        <v>25.2176634538606</v>
+        <v>57.01776</v>
       </c>
       <c r="O4">
-        <v>0.6869490289593727</v>
+        <v>0.4218842752681067</v>
       </c>
       <c r="P4">
-        <v>0.6869490289593727</v>
+        <v>0.4231074983411932</v>
       </c>
       <c r="Q4">
-        <v>1276.199367607302</v>
+        <v>962.44447953144</v>
       </c>
       <c r="R4">
-        <v>1276.199367607302</v>
+        <v>5774.66687718864</v>
       </c>
       <c r="S4">
-        <v>0.372437564826278</v>
+        <v>0.2263375663339389</v>
       </c>
       <c r="T4">
-        <v>0.372437564826278</v>
+        <v>0.1847686483362118</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.6073597953393</v>
+        <v>50.6391945</v>
       </c>
       <c r="H5">
-        <v>50.6073597953393</v>
+        <v>101.278389</v>
       </c>
       <c r="I5">
-        <v>0.5421618622715959</v>
+        <v>0.5364920657213447</v>
       </c>
       <c r="J5">
-        <v>0.5421618622715959</v>
+        <v>0.4366943366889108</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.183600016339869</v>
+        <v>25.443508</v>
       </c>
       <c r="N5">
-        <v>0.183600016339869</v>
+        <v>76.330524</v>
       </c>
       <c r="O5">
-        <v>0.005001409158003873</v>
+        <v>0.5647827588908232</v>
       </c>
       <c r="P5">
-        <v>0.005001409158003873</v>
+        <v>0.5664203058259815</v>
       </c>
       <c r="Q5">
-        <v>9.291512085341925</v>
+        <v>1288.438750374306</v>
       </c>
       <c r="R5">
-        <v>9.291512085341925</v>
+        <v>7730.632502245836</v>
       </c>
       <c r="S5">
-        <v>0.002711573303085594</v>
+        <v>0.3030014690011379</v>
       </c>
       <c r="T5">
-        <v>0.002711573303085594</v>
+        <v>0.2473525397398069</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.535825600255992</v>
+        <v>50.6391945</v>
       </c>
       <c r="H6">
-        <v>0.535825600255992</v>
+        <v>101.278389</v>
       </c>
       <c r="I6">
-        <v>0.005740354890324439</v>
+        <v>0.5364920657213447</v>
       </c>
       <c r="J6">
-        <v>0.005740354890324439</v>
+        <v>0.4366943366889108</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.183886783266226</v>
+        <v>0.1615046666666667</v>
       </c>
       <c r="N6">
-        <v>0.183886783266226</v>
+        <v>0.484514</v>
       </c>
       <c r="O6">
-        <v>0.00500922091510655</v>
+        <v>0.003585002949032923</v>
       </c>
       <c r="P6">
-        <v>0.00500922091510655</v>
+        <v>0.003595397406900673</v>
       </c>
       <c r="Q6">
-        <v>0.09853124602276907</v>
+        <v>8.178466227991001</v>
       </c>
       <c r="R6">
-        <v>0.09853124602276907</v>
+        <v>49.070797367946</v>
       </c>
       <c r="S6">
-        <v>2.875470577674734E-05</v>
+        <v>0.001923325637743785</v>
       </c>
       <c r="T6">
-        <v>2.875470577674734E-05</v>
+        <v>0.001570089685739519</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.535825600255992</v>
+        <v>50.6391945</v>
       </c>
       <c r="H7">
-        <v>0.535825600255992</v>
+        <v>101.278389</v>
       </c>
       <c r="I7">
-        <v>0.005740354890324439</v>
+        <v>0.5364920657213447</v>
       </c>
       <c r="J7">
-        <v>0.005740354890324439</v>
+        <v>0.4366943366889108</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.1245070730189</v>
+        <v>0.1894915</v>
       </c>
       <c r="N7">
-        <v>11.1245070730189</v>
+        <v>0.378983</v>
       </c>
       <c r="O7">
-        <v>0.303040340967517</v>
+        <v>0.004206241220996745</v>
       </c>
       <c r="P7">
-        <v>0.303040340967517</v>
+        <v>0.002812291276329348</v>
       </c>
       <c r="Q7">
-        <v>5.960795679952382</v>
+        <v>9.595696924596751</v>
       </c>
       <c r="R7">
-        <v>5.960795679952382</v>
+        <v>38.38278769838701</v>
       </c>
       <c r="S7">
-        <v>0.001739559103238471</v>
+        <v>0.002256615041574815</v>
       </c>
       <c r="T7">
-        <v>0.001739559103238471</v>
+        <v>0.001228111673492655</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.535825600255992</v>
+        <v>0.667119</v>
       </c>
       <c r="H8">
-        <v>0.535825600255992</v>
+        <v>2.001357</v>
       </c>
       <c r="I8">
-        <v>0.005740354890324439</v>
+        <v>0.007067727951161579</v>
       </c>
       <c r="J8">
-        <v>0.005740354890324439</v>
+        <v>0.008629494171680676</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.2176634538606</v>
+        <v>0.201234</v>
       </c>
       <c r="N8">
-        <v>25.2176634538606</v>
+        <v>0.402468</v>
       </c>
       <c r="O8">
-        <v>0.6869490289593727</v>
+        <v>0.004466895590915998</v>
       </c>
       <c r="P8">
-        <v>0.6869490289593727</v>
+        <v>0.002986564688658119</v>
       </c>
       <c r="Q8">
-        <v>13.51226965721845</v>
+        <v>0.134247024846</v>
       </c>
       <c r="R8">
-        <v>13.51226965721845</v>
+        <v>0.805482149076</v>
       </c>
       <c r="S8">
-        <v>0.003943331217790559</v>
+        <v>3.157080282283742E-05</v>
       </c>
       <c r="T8">
-        <v>0.003943331217790559</v>
+        <v>2.577254257412256E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.535825600255992</v>
+        <v>0.667119</v>
       </c>
       <c r="H9">
-        <v>0.535825600255992</v>
+        <v>2.001357</v>
       </c>
       <c r="I9">
-        <v>0.005740354890324439</v>
+        <v>0.007067727951161579</v>
       </c>
       <c r="J9">
-        <v>0.005740354890324439</v>
+        <v>0.008629494171680676</v>
       </c>
       <c r="K9">
         <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.183600016339869</v>
+        <v>0.048421</v>
       </c>
       <c r="N9">
-        <v>0.183600016339869</v>
+        <v>0.145263</v>
       </c>
       <c r="O9">
-        <v>0.005001409158003873</v>
+        <v>0.00107482608012435</v>
       </c>
       <c r="P9">
-        <v>0.005001409158003873</v>
+        <v>0.001077942460937377</v>
       </c>
       <c r="Q9">
-        <v>0.09837758896232025</v>
+        <v>0.032302569099</v>
       </c>
       <c r="R9">
-        <v>0.09837758896232025</v>
+        <v>0.290723121891</v>
       </c>
       <c r="S9">
-        <v>2.870986351866097E-05</v>
+        <v>7.596578329132306E-06</v>
       </c>
       <c r="T9">
-        <v>2.870986351866097E-05</v>
+        <v>9.302098184066224E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.05881905088223</v>
+        <v>0.667119</v>
       </c>
       <c r="H10">
-        <v>4.05881905088223</v>
+        <v>2.001357</v>
       </c>
       <c r="I10">
-        <v>0.04348254688940323</v>
+        <v>0.007067727951161579</v>
       </c>
       <c r="J10">
-        <v>0.04348254688940323</v>
+        <v>0.008629494171680676</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.183886783266226</v>
+        <v>19.00592</v>
       </c>
       <c r="N10">
-        <v>0.183886783266226</v>
+        <v>57.01776</v>
       </c>
       <c r="O10">
-        <v>0.00500922091510655</v>
+        <v>0.4218842752681067</v>
       </c>
       <c r="P10">
-        <v>0.00500922091510655</v>
+        <v>0.4231074983411932</v>
       </c>
       <c r="Q10">
-        <v>0.7463631791264097</v>
+        <v>12.67921034448</v>
       </c>
       <c r="R10">
-        <v>0.7463631791264097</v>
+        <v>114.11289310032</v>
       </c>
       <c r="S10">
-        <v>0.0002178136833204999</v>
+        <v>0.002981763284467943</v>
       </c>
       <c r="T10">
-        <v>0.0002178136833204999</v>
+        <v>0.003651203690929718</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.05881905088223</v>
+        <v>0.667119</v>
       </c>
       <c r="H11">
-        <v>4.05881905088223</v>
+        <v>2.001357</v>
       </c>
       <c r="I11">
-        <v>0.04348254688940323</v>
+        <v>0.007067727951161579</v>
       </c>
       <c r="J11">
-        <v>0.04348254688940323</v>
+        <v>0.008629494171680676</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.1245070730189</v>
+        <v>25.443508</v>
       </c>
       <c r="N11">
-        <v>11.1245070730189</v>
+        <v>76.330524</v>
       </c>
       <c r="O11">
-        <v>0.303040340967517</v>
+        <v>0.5647827588908232</v>
       </c>
       <c r="P11">
-        <v>0.303040340967517</v>
+        <v>0.5664203058259815</v>
       </c>
       <c r="Q11">
-        <v>45.15236123964323</v>
+        <v>16.973847613452</v>
       </c>
       <c r="R11">
-        <v>45.15236123964323</v>
+        <v>152.764628521068</v>
       </c>
       <c r="S11">
-        <v>0.0131769658355008</v>
+        <v>0.003991730891346822</v>
       </c>
       <c r="T11">
-        <v>0.0131769658355008</v>
+        <v>0.004887920727846893</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.05881905088223</v>
+        <v>0.667119</v>
       </c>
       <c r="H12">
-        <v>4.05881905088223</v>
+        <v>2.001357</v>
       </c>
       <c r="I12">
-        <v>0.04348254688940323</v>
+        <v>0.007067727951161579</v>
       </c>
       <c r="J12">
-        <v>0.04348254688940323</v>
+        <v>0.008629494171680676</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>25.2176634538606</v>
+        <v>0.1615046666666667</v>
       </c>
       <c r="N12">
-        <v>25.2176634538606</v>
+        <v>0.484514</v>
       </c>
       <c r="O12">
-        <v>0.6869490289593727</v>
+        <v>0.003585002949032923</v>
       </c>
       <c r="P12">
-        <v>0.6869490289593727</v>
+        <v>0.003595397406900673</v>
       </c>
       <c r="Q12">
-        <v>102.353932845266</v>
+        <v>0.107742831722</v>
       </c>
       <c r="R12">
-        <v>102.353932845266</v>
+        <v>0.969685485498</v>
       </c>
       <c r="S12">
-        <v>0.02987029336235594</v>
+        <v>2.533782554787668E-05</v>
       </c>
       <c r="T12">
-        <v>0.02987029336235594</v>
+        <v>3.102646096772517E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.05881905088223</v>
+        <v>0.667119</v>
       </c>
       <c r="H13">
-        <v>4.05881905088223</v>
+        <v>2.001357</v>
       </c>
       <c r="I13">
-        <v>0.04348254688940323</v>
+        <v>0.007067727951161579</v>
       </c>
       <c r="J13">
-        <v>0.04348254688940323</v>
+        <v>0.008629494171680676</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.183600016339869</v>
+        <v>0.1894915</v>
       </c>
       <c r="N13">
-        <v>0.183600016339869</v>
+        <v>0.378983</v>
       </c>
       <c r="O13">
-        <v>0.005001409158003873</v>
+        <v>0.004206241220996745</v>
       </c>
       <c r="P13">
-        <v>0.005001409158003873</v>
+        <v>0.002812291276329348</v>
       </c>
       <c r="Q13">
-        <v>0.745199244062549</v>
+        <v>0.1264133799885</v>
       </c>
       <c r="R13">
-        <v>0.745199244062549</v>
+        <v>0.7584802799310001</v>
       </c>
       <c r="S13">
-        <v>0.0002174740082259941</v>
+        <v>2.97285686469667E-05</v>
       </c>
       <c r="T13">
-        <v>0.0002174740082259941</v>
+        <v>2.426865117815252E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.18052744566125</v>
+        <v>4.321189</v>
       </c>
       <c r="H14">
-        <v>6.18052744566125</v>
+        <v>12.963567</v>
       </c>
       <c r="I14">
-        <v>0.06621262763581297</v>
+        <v>0.0457804204010858</v>
       </c>
       <c r="J14">
-        <v>0.06621262763581297</v>
+        <v>0.05589658710099796</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.183886783266226</v>
+        <v>0.201234</v>
       </c>
       <c r="N14">
-        <v>0.183886783266226</v>
+        <v>0.402468</v>
       </c>
       <c r="O14">
-        <v>0.00500922091510655</v>
+        <v>0.004466895590915998</v>
       </c>
       <c r="P14">
-        <v>0.00500922091510655</v>
+        <v>0.002986564688658119</v>
       </c>
       <c r="Q14">
-        <v>1.136517310871272</v>
+        <v>0.869570147226</v>
       </c>
       <c r="R14">
-        <v>1.136517310871272</v>
+        <v>5.217420883356001</v>
       </c>
       <c r="S14">
-        <v>0.0003316736791974762</v>
+        <v>0.0002044963580398909</v>
       </c>
       <c r="T14">
-        <v>0.0003316736791974762</v>
+        <v>0.0001669387732523434</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,60 +1340,60 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.18052744566125</v>
+        <v>4.321189</v>
       </c>
       <c r="H15">
-        <v>6.18052744566125</v>
+        <v>12.963567</v>
       </c>
       <c r="I15">
-        <v>0.06621262763581297</v>
+        <v>0.0457804204010858</v>
       </c>
       <c r="J15">
-        <v>0.06621262763581297</v>
+        <v>0.05589658710099796</v>
       </c>
       <c r="K15">
         <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>11.1245070730189</v>
+        <v>0.048421</v>
       </c>
       <c r="N15">
-        <v>11.1245070730189</v>
+        <v>0.145263</v>
       </c>
       <c r="O15">
-        <v>0.303040340967517</v>
+        <v>0.00107482608012435</v>
       </c>
       <c r="P15">
-        <v>0.303040340967517</v>
+        <v>0.001077942460937377</v>
       </c>
       <c r="Q15">
-        <v>68.75532128424601</v>
+        <v>0.209236292569</v>
       </c>
       <c r="R15">
-        <v>68.75532128424601</v>
+        <v>1.883126633121</v>
       </c>
       <c r="S15">
-        <v>0.020065097255112</v>
+        <v>4.920598980614389E-05</v>
       </c>
       <c r="T15">
-        <v>0.020065097255112</v>
+        <v>6.02533046576502E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.18052744566125</v>
+        <v>4.321189</v>
       </c>
       <c r="H16">
-        <v>6.18052744566125</v>
+        <v>12.963567</v>
       </c>
       <c r="I16">
-        <v>0.06621262763581297</v>
+        <v>0.0457804204010858</v>
       </c>
       <c r="J16">
-        <v>0.06621262763581297</v>
+        <v>0.05589658710099796</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.2176634538606</v>
+        <v>19.00592</v>
       </c>
       <c r="N16">
-        <v>25.2176634538606</v>
+        <v>57.01776</v>
       </c>
       <c r="O16">
-        <v>0.6869490289593727</v>
+        <v>0.4218842752681067</v>
       </c>
       <c r="P16">
-        <v>0.6869490289593727</v>
+        <v>0.4231074983411932</v>
       </c>
       <c r="Q16">
-        <v>155.8584610920341</v>
+        <v>82.12817243888</v>
       </c>
       <c r="R16">
-        <v>155.8584610920341</v>
+        <v>739.15355194992</v>
       </c>
       <c r="S16">
-        <v>0.04548470025927025</v>
+        <v>0.01931403948238133</v>
       </c>
       <c r="T16">
-        <v>0.04548470025927025</v>
+        <v>0.02365026513411386</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.18052744566125</v>
+        <v>4.321189</v>
       </c>
       <c r="H17">
-        <v>6.18052744566125</v>
+        <v>12.963567</v>
       </c>
       <c r="I17">
-        <v>0.06621262763581297</v>
+        <v>0.0457804204010858</v>
       </c>
       <c r="J17">
-        <v>0.06621262763581297</v>
+        <v>0.05589658710099796</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.183600016339869</v>
+        <v>25.443508</v>
       </c>
       <c r="N17">
-        <v>0.183600016339869</v>
+        <v>76.330524</v>
       </c>
       <c r="O17">
-        <v>0.005001409158003873</v>
+        <v>0.5647827588908232</v>
       </c>
       <c r="P17">
-        <v>0.005001409158003873</v>
+        <v>0.5664203058259815</v>
       </c>
       <c r="Q17">
-        <v>1.134744940012414</v>
+        <v>109.946206891012</v>
       </c>
       <c r="R17">
-        <v>1.134744940012414</v>
+        <v>989.515862019108</v>
       </c>
       <c r="S17">
-        <v>0.0003311564422332553</v>
+        <v>0.02585599213730696</v>
       </c>
       <c r="T17">
-        <v>0.0003311564422332553</v>
+        <v>0.03166096196037587</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>31.4219376930784</v>
+        <v>4.321189</v>
       </c>
       <c r="H18">
-        <v>31.4219376930784</v>
+        <v>12.963567</v>
       </c>
       <c r="I18">
-        <v>0.336626457589482</v>
+        <v>0.0457804204010858</v>
       </c>
       <c r="J18">
-        <v>0.336626457589482</v>
+        <v>0.05589658710099796</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.183886783266226</v>
+        <v>0.1615046666666667</v>
       </c>
       <c r="N18">
-        <v>0.183886783266226</v>
+        <v>0.484514</v>
       </c>
       <c r="O18">
-        <v>0.00500922091510655</v>
+        <v>0.003585002949032923</v>
       </c>
       <c r="P18">
-        <v>0.00500922091510655</v>
+        <v>0.003595397406900673</v>
       </c>
       <c r="Q18">
-        <v>5.778079046371966</v>
+        <v>0.6978921890486667</v>
       </c>
       <c r="R18">
-        <v>5.778079046371966</v>
+        <v>6.281029701438</v>
       </c>
       <c r="S18">
-        <v>0.001686236291935461</v>
+        <v>0.0001641229421458596</v>
       </c>
       <c r="T18">
-        <v>0.001686236291935461</v>
+        <v>0.0002009704443175256</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>31.4219376930784</v>
+        <v>4.321189</v>
       </c>
       <c r="H19">
-        <v>31.4219376930784</v>
+        <v>12.963567</v>
       </c>
       <c r="I19">
-        <v>0.336626457589482</v>
+        <v>0.0457804204010858</v>
       </c>
       <c r="J19">
-        <v>0.336626457589482</v>
+        <v>0.05589658710099796</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.1245070730189</v>
+        <v>0.1894915</v>
       </c>
       <c r="N19">
-        <v>11.1245070730189</v>
+        <v>0.378983</v>
       </c>
       <c r="O19">
-        <v>0.303040340967517</v>
+        <v>0.004206241220996745</v>
       </c>
       <c r="P19">
-        <v>0.303040340967517</v>
+        <v>0.002812291276329348</v>
       </c>
       <c r="Q19">
-        <v>349.5535681146099</v>
+        <v>0.8188285853935001</v>
       </c>
       <c r="R19">
-        <v>349.5535681146099</v>
+        <v>4.912971512361</v>
       </c>
       <c r="S19">
-        <v>0.102011396486604</v>
+        <v>0.0001925634914056074</v>
       </c>
       <c r="T19">
-        <v>0.102011396486604</v>
+        <v>0.0001571974842807201</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>31.4219376930784</v>
+        <v>6.262834666666667</v>
       </c>
       <c r="H20">
-        <v>31.4219376930784</v>
+        <v>18.788504</v>
       </c>
       <c r="I20">
-        <v>0.336626457589482</v>
+        <v>0.06635099828831695</v>
       </c>
       <c r="J20">
-        <v>0.336626457589482</v>
+        <v>0.08101267578078228</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.2176634538606</v>
+        <v>0.201234</v>
       </c>
       <c r="N20">
-        <v>25.2176634538606</v>
+        <v>0.402468</v>
       </c>
       <c r="O20">
-        <v>0.6869490289593727</v>
+        <v>0.004466895590915998</v>
       </c>
       <c r="P20">
-        <v>0.6869490289593727</v>
+        <v>0.002986564688658119</v>
       </c>
       <c r="Q20">
-        <v>792.3878498122281</v>
+        <v>1.260295271312</v>
       </c>
       <c r="R20">
-        <v>792.3878498122281</v>
+        <v>7.561771627872</v>
       </c>
       <c r="S20">
-        <v>0.2312452181631281</v>
+        <v>0.0002963829817069579</v>
       </c>
       <c r="T20">
-        <v>0.2312452181631281</v>
+        <v>0.0002419495968205932</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>31.4219376930784</v>
+        <v>6.262834666666667</v>
       </c>
       <c r="H21">
-        <v>31.4219376930784</v>
+        <v>18.788504</v>
       </c>
       <c r="I21">
-        <v>0.336626457589482</v>
+        <v>0.06635099828831695</v>
       </c>
       <c r="J21">
-        <v>0.336626457589482</v>
+        <v>0.08101267578078228</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.183600016339869</v>
+        <v>0.048421</v>
       </c>
       <c r="N21">
-        <v>0.183600016339869</v>
+        <v>0.145263</v>
       </c>
       <c r="O21">
-        <v>0.005001409158003873</v>
+        <v>0.00107482608012435</v>
       </c>
       <c r="P21">
-        <v>0.005001409158003873</v>
+        <v>0.001077942460937377</v>
       </c>
       <c r="Q21">
-        <v>5.76906827387954</v>
+        <v>0.3032527173946666</v>
       </c>
       <c r="R21">
-        <v>5.76906827387954</v>
+        <v>2.729274456552</v>
       </c>
       <c r="S21">
-        <v>0.001683606647814437</v>
+        <v>7.131578340256919E-05</v>
       </c>
       <c r="T21">
-        <v>0.001683606647814437</v>
+        <v>8.732700309825832E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.539166913485054</v>
+        <v>6.262834666666667</v>
       </c>
       <c r="H22">
-        <v>0.539166913485054</v>
+        <v>18.788504</v>
       </c>
       <c r="I22">
-        <v>0.005776150723381665</v>
+        <v>0.06635099828831695</v>
       </c>
       <c r="J22">
-        <v>0.005776150723381665</v>
+        <v>0.08101267578078228</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.183886783266226</v>
+        <v>19.00592</v>
       </c>
       <c r="N22">
-        <v>0.183886783266226</v>
+        <v>57.01776</v>
       </c>
       <c r="O22">
-        <v>0.00500922091510655</v>
+        <v>0.4218842752681067</v>
       </c>
       <c r="P22">
-        <v>0.00500922091510655</v>
+        <v>0.4231074983411932</v>
       </c>
       <c r="Q22">
-        <v>0.09914566936434616</v>
+        <v>119.0309346478933</v>
       </c>
       <c r="R22">
-        <v>0.09914566936434616</v>
+        <v>1071.27841183104</v>
       </c>
       <c r="S22">
-        <v>2.893401501237126E-05</v>
+        <v>0.02799244282618198</v>
       </c>
       <c r="T22">
-        <v>2.893401501237126E-05</v>
+        <v>0.03427707058353296</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.539166913485054</v>
+        <v>6.262834666666667</v>
       </c>
       <c r="H23">
-        <v>0.539166913485054</v>
+        <v>18.788504</v>
       </c>
       <c r="I23">
-        <v>0.005776150723381665</v>
+        <v>0.06635099828831695</v>
       </c>
       <c r="J23">
-        <v>0.005776150723381665</v>
+        <v>0.08101267578078228</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.1245070730189</v>
+        <v>25.443508</v>
       </c>
       <c r="N23">
-        <v>11.1245070730189</v>
+        <v>76.330524</v>
       </c>
       <c r="O23">
-        <v>0.303040340967517</v>
+        <v>0.5647827588908232</v>
       </c>
       <c r="P23">
-        <v>0.303040340967517</v>
+        <v>0.5664203058259815</v>
       </c>
       <c r="Q23">
-        <v>5.997966142602253</v>
+        <v>159.3484839440106</v>
       </c>
       <c r="R23">
-        <v>5.997966142602253</v>
+        <v>1434.136355496096</v>
       </c>
       <c r="S23">
-        <v>0.00175040668469335</v>
+        <v>0.03747389986843593</v>
       </c>
       <c r="T23">
-        <v>0.00175040668469335</v>
+        <v>0.04588722459153178</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,60 +1898,60 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.539166913485054</v>
+        <v>6.262834666666667</v>
       </c>
       <c r="H24">
-        <v>0.539166913485054</v>
+        <v>18.788504</v>
       </c>
       <c r="I24">
-        <v>0.005776150723381665</v>
+        <v>0.06635099828831695</v>
       </c>
       <c r="J24">
-        <v>0.005776150723381665</v>
+        <v>0.08101267578078228</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>25.2176634538606</v>
+        <v>0.1615046666666667</v>
       </c>
       <c r="N24">
-        <v>25.2176634538606</v>
+        <v>0.484514</v>
       </c>
       <c r="O24">
-        <v>0.6869490289593727</v>
+        <v>0.003585002949032923</v>
       </c>
       <c r="P24">
-        <v>0.6869490289593727</v>
+        <v>0.003595397406900673</v>
       </c>
       <c r="Q24">
-        <v>13.59652976972287</v>
+        <v>1.011477025228444</v>
       </c>
       <c r="R24">
-        <v>13.59652976972287</v>
+        <v>9.103293227056</v>
       </c>
       <c r="S24">
-        <v>0.003967921130550013</v>
+        <v>0.0002378685245348947</v>
       </c>
       <c r="T24">
-        <v>0.003967921130550013</v>
+        <v>0.0002912727644283095</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.539166913485054</v>
+        <v>6.262834666666667</v>
       </c>
       <c r="H25">
-        <v>0.539166913485054</v>
+        <v>18.788504</v>
       </c>
       <c r="I25">
-        <v>0.005776150723381665</v>
+        <v>0.06635099828831695</v>
       </c>
       <c r="J25">
-        <v>0.005776150723381665</v>
+        <v>0.08101267578078228</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.183600016339869</v>
+        <v>0.1894915</v>
       </c>
       <c r="N25">
-        <v>0.183600016339869</v>
+        <v>0.378983</v>
       </c>
       <c r="O25">
-        <v>0.005001409158003873</v>
+        <v>0.004206241220996745</v>
       </c>
       <c r="P25">
-        <v>0.005001409158003873</v>
+        <v>0.002812291276329348</v>
       </c>
       <c r="Q25">
-        <v>0.09899105412577264</v>
+        <v>1.186753935238667</v>
       </c>
       <c r="R25">
-        <v>0.09899105412577264</v>
+        <v>7.120523611432001</v>
       </c>
       <c r="S25">
-        <v>2.888889312593176E-05</v>
+        <v>0.0002790883040546032</v>
       </c>
       <c r="T25">
-        <v>2.888889312593176E-05</v>
+        <v>0.0002278312413703919</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>31.89049033333333</v>
+      </c>
+      <c r="H26">
+        <v>95.671471</v>
+      </c>
+      <c r="I26">
+        <v>0.3378607263548905</v>
+      </c>
+      <c r="J26">
+        <v>0.4125183070239926</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.201234</v>
+      </c>
+      <c r="N26">
+        <v>0.402468</v>
+      </c>
+      <c r="O26">
+        <v>0.004466895590915998</v>
+      </c>
+      <c r="P26">
+        <v>0.002986564688658119</v>
+      </c>
+      <c r="Q26">
+        <v>6.417450931737999</v>
+      </c>
+      <c r="R26">
+        <v>38.504705590428</v>
+      </c>
+      <c r="S26">
+        <v>0.001509188588898337</v>
+      </c>
+      <c r="T26">
+        <v>0.001232012609182885</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>31.89049033333333</v>
+      </c>
+      <c r="H27">
+        <v>95.671471</v>
+      </c>
+      <c r="I27">
+        <v>0.3378607263548905</v>
+      </c>
+      <c r="J27">
+        <v>0.4125183070239926</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.048421</v>
+      </c>
+      <c r="N27">
+        <v>0.145263</v>
+      </c>
+      <c r="O27">
+        <v>0.00107482608012435</v>
+      </c>
+      <c r="P27">
+        <v>0.001077942460937377</v>
+      </c>
+      <c r="Q27">
+        <v>1.544169432430333</v>
+      </c>
+      <c r="R27">
+        <v>13.897524891873</v>
+      </c>
+      <c r="S27">
+        <v>0.0003631415201359927</v>
+      </c>
+      <c r="T27">
+        <v>0.0004446709990551632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>31.89049033333333</v>
+      </c>
+      <c r="H28">
+        <v>95.671471</v>
+      </c>
+      <c r="I28">
+        <v>0.3378607263548905</v>
+      </c>
+      <c r="J28">
+        <v>0.4125183070239926</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>19.00592</v>
+      </c>
+      <c r="N28">
+        <v>57.01776</v>
+      </c>
+      <c r="O28">
+        <v>0.4218842752681067</v>
+      </c>
+      <c r="P28">
+        <v>0.4231074983411932</v>
+      </c>
+      <c r="Q28">
+        <v>606.1081080361066</v>
+      </c>
+      <c r="R28">
+        <v>5454.972972324959</v>
+      </c>
+      <c r="S28">
+        <v>0.1425381276797891</v>
+      </c>
+      <c r="T28">
+        <v>0.1745395889048658</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>31.89049033333333</v>
+      </c>
+      <c r="H29">
+        <v>95.671471</v>
+      </c>
+      <c r="I29">
+        <v>0.3378607263548905</v>
+      </c>
+      <c r="J29">
+        <v>0.4125183070239926</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>25.443508</v>
+      </c>
+      <c r="N29">
+        <v>76.330524</v>
+      </c>
+      <c r="O29">
+        <v>0.5647827588908232</v>
+      </c>
+      <c r="P29">
+        <v>0.5664203058259815</v>
+      </c>
+      <c r="Q29">
+        <v>811.4059459200893</v>
+      </c>
+      <c r="R29">
+        <v>7302.653513280803</v>
+      </c>
+      <c r="S29">
+        <v>0.1908179131515725</v>
+      </c>
+      <c r="T29">
+        <v>0.233658745623346</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>31.89049033333333</v>
+      </c>
+      <c r="H30">
+        <v>95.671471</v>
+      </c>
+      <c r="I30">
+        <v>0.3378607263548905</v>
+      </c>
+      <c r="J30">
+        <v>0.4125183070239926</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M30">
+        <v>0.1615046666666667</v>
+      </c>
+      <c r="N30">
+        <v>0.484514</v>
+      </c>
+      <c r="O30">
+        <v>0.003585002949032923</v>
+      </c>
+      <c r="P30">
+        <v>0.003595397406900673</v>
+      </c>
+      <c r="Q30">
+        <v>5.150463011121555</v>
+      </c>
+      <c r="R30">
+        <v>46.354167100094</v>
+      </c>
+      <c r="S30">
+        <v>0.001211231700344688</v>
+      </c>
+      <c r="T30">
+        <v>0.001483167251373119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>31.89049033333333</v>
+      </c>
+      <c r="H31">
+        <v>95.671471</v>
+      </c>
+      <c r="I31">
+        <v>0.3378607263548905</v>
+      </c>
+      <c r="J31">
+        <v>0.4125183070239926</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.1894915</v>
+      </c>
+      <c r="N31">
+        <v>0.378983</v>
+      </c>
+      <c r="O31">
+        <v>0.004206241220996745</v>
+      </c>
+      <c r="P31">
+        <v>0.002812291276329348</v>
+      </c>
+      <c r="Q31">
+        <v>6.042976848998833</v>
+      </c>
+      <c r="R31">
+        <v>36.257861093993</v>
+      </c>
+      <c r="S31">
+        <v>0.001421123714149842</v>
+      </c>
+      <c r="T31">
+        <v>0.001160121636169726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>0.608629</v>
+      </c>
+      <c r="H32">
+        <v>1.217258</v>
+      </c>
+      <c r="I32">
+        <v>0.006448061283200629</v>
+      </c>
+      <c r="J32">
+        <v>0.005248599233635816</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.201234</v>
+      </c>
+      <c r="N32">
+        <v>0.402468</v>
+      </c>
+      <c r="O32">
+        <v>0.004466895590915998</v>
+      </c>
+      <c r="P32">
+        <v>0.002986564688658119</v>
+      </c>
+      <c r="Q32">
+        <v>0.122476848186</v>
+      </c>
+      <c r="R32">
+        <v>0.489907392744</v>
+      </c>
+      <c r="S32">
+        <v>2.880281651588504E-05</v>
+      </c>
+      <c r="T32">
+        <v>1.56752811360948E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>0.608629</v>
+      </c>
+      <c r="H33">
+        <v>1.217258</v>
+      </c>
+      <c r="I33">
+        <v>0.006448061283200629</v>
+      </c>
+      <c r="J33">
+        <v>0.005248599233635816</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.048421</v>
+      </c>
+      <c r="N33">
+        <v>0.145263</v>
+      </c>
+      <c r="O33">
+        <v>0.00107482608012435</v>
+      </c>
+      <c r="P33">
+        <v>0.001077942460937377</v>
+      </c>
+      <c r="Q33">
+        <v>0.029470424809</v>
+      </c>
+      <c r="R33">
+        <v>0.176822548854</v>
+      </c>
+      <c r="S33">
+        <v>6.930544433424121E-06</v>
+      </c>
+      <c r="T33">
+        <v>5.657687974379425E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>0.608629</v>
+      </c>
+      <c r="H34">
+        <v>1.217258</v>
+      </c>
+      <c r="I34">
+        <v>0.006448061283200629</v>
+      </c>
+      <c r="J34">
+        <v>0.005248599233635816</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>19.00592</v>
+      </c>
+      <c r="N34">
+        <v>57.01776</v>
+      </c>
+      <c r="O34">
+        <v>0.4218842752681067</v>
+      </c>
+      <c r="P34">
+        <v>0.4231074983411932</v>
+      </c>
+      <c r="Q34">
+        <v>11.56755408368</v>
+      </c>
+      <c r="R34">
+        <v>69.40532450207999</v>
+      </c>
+      <c r="S34">
+        <v>0.002720335661347436</v>
+      </c>
+      <c r="T34">
+        <v>0.002220721691539154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>0.608629</v>
+      </c>
+      <c r="H35">
+        <v>1.217258</v>
+      </c>
+      <c r="I35">
+        <v>0.006448061283200629</v>
+      </c>
+      <c r="J35">
+        <v>0.005248599233635816</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>25.443508</v>
+      </c>
+      <c r="N35">
+        <v>76.330524</v>
+      </c>
+      <c r="O35">
+        <v>0.5647827588908232</v>
+      </c>
+      <c r="P35">
+        <v>0.5664203058259815</v>
+      </c>
+      <c r="Q35">
+        <v>15.485656830532</v>
+      </c>
+      <c r="R35">
+        <v>92.91394098319199</v>
+      </c>
+      <c r="S35">
+        <v>0.003641753841023153</v>
+      </c>
+      <c r="T35">
+        <v>0.002972913183074011</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>0.608629</v>
+      </c>
+      <c r="H36">
+        <v>1.217258</v>
+      </c>
+      <c r="I36">
+        <v>0.006448061283200629</v>
+      </c>
+      <c r="J36">
+        <v>0.005248599233635816</v>
+      </c>
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M36">
+        <v>0.1615046666666667</v>
+      </c>
+      <c r="N36">
+        <v>0.484514</v>
+      </c>
+      <c r="O36">
+        <v>0.003585002949032923</v>
+      </c>
+      <c r="P36">
+        <v>0.003595397406900673</v>
+      </c>
+      <c r="Q36">
+        <v>0.09829642376866665</v>
+      </c>
+      <c r="R36">
+        <v>0.589778542612</v>
+      </c>
+      <c r="S36">
+        <v>2.311631871581927E-05</v>
+      </c>
+      <c r="T36">
+        <v>1.887080007447507E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0.608629</v>
+      </c>
+      <c r="H37">
+        <v>1.217258</v>
+      </c>
+      <c r="I37">
+        <v>0.006448061283200629</v>
+      </c>
+      <c r="J37">
+        <v>0.005248599233635816</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>0.1894915</v>
+      </c>
+      <c r="N37">
+        <v>0.378983</v>
+      </c>
+      <c r="O37">
+        <v>0.004206241220996745</v>
+      </c>
+      <c r="P37">
+        <v>0.002812291276329348</v>
+      </c>
+      <c r="Q37">
+        <v>0.1153300221535</v>
+      </c>
+      <c r="R37">
+        <v>0.461320088614</v>
+      </c>
+      <c r="S37">
+        <v>2.712210116491165E-05</v>
+      </c>
+      <c r="T37">
+        <v>1.476058983770291E-05</v>
       </c>
     </row>
   </sheetData>
